--- a/gameData/shared/PlayerVillageExp.xlsx
+++ b/gameData/shared/PlayerVillageExp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="3540" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
+    <workbookView xWindow="1600" yWindow="2340" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="2" r:id="rId1"/>
@@ -840,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -915,7 +915,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -957,13 +957,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -971,111 +971,111 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C4" s="1">
-        <v>600</v>
+        <v>1769</v>
       </c>
       <c r="D4" s="1">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>600</v>
+      <c r="B5" s="2">
+        <v>1770</v>
       </c>
       <c r="C5" s="1">
-        <v>1000</v>
+        <v>7607</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>1000</v>
+      <c r="B6" s="2">
+        <v>7608</v>
       </c>
       <c r="C6" s="1">
-        <v>1500</v>
+        <v>20387</v>
       </c>
       <c r="D6" s="1">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1500</v>
+      <c r="B7" s="2">
+        <v>20388</v>
       </c>
       <c r="C7" s="1">
-        <v>2100</v>
+        <v>48748</v>
       </c>
       <c r="D7" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>2100</v>
+      <c r="B8" s="2">
+        <v>48749</v>
       </c>
       <c r="C8" s="1">
-        <v>2800</v>
+        <v>104863</v>
       </c>
       <c r="D8" s="1">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>2800</v>
+      <c r="B9" s="2">
+        <v>104864</v>
       </c>
       <c r="C9" s="1">
-        <v>3600</v>
+        <v>217010</v>
       </c>
       <c r="D9" s="1">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>3600</v>
+      <c r="B10" s="2">
+        <v>217011</v>
       </c>
       <c r="C10" s="1">
-        <v>4500</v>
+        <v>419315</v>
       </c>
       <c r="D10" s="1">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>4500</v>
+      <c r="B11" s="2">
+        <v>419316</v>
       </c>
       <c r="C11" s="1">
-        <v>100000000</v>
+        <v>786515</v>
       </c>
       <c r="D11" s="1">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -1137,13 +1137,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1151,111 +1151,111 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C4" s="1">
-        <v>600</v>
+        <v>1769</v>
       </c>
       <c r="D4" s="1">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>600</v>
+      <c r="B5" s="2">
+        <v>1770</v>
       </c>
       <c r="C5" s="1">
-        <v>1000</v>
+        <v>7607</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>1000</v>
+      <c r="B6" s="2">
+        <v>7608</v>
       </c>
       <c r="C6" s="1">
-        <v>1500</v>
+        <v>20387</v>
       </c>
       <c r="D6" s="1">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1500</v>
+      <c r="B7" s="2">
+        <v>20388</v>
       </c>
       <c r="C7" s="1">
-        <v>2100</v>
+        <v>48748</v>
       </c>
       <c r="D7" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>2100</v>
+      <c r="B8" s="2">
+        <v>48749</v>
       </c>
       <c r="C8" s="1">
-        <v>2800</v>
+        <v>104863</v>
       </c>
       <c r="D8" s="1">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>2800</v>
+      <c r="B9" s="2">
+        <v>104864</v>
       </c>
       <c r="C9" s="1">
-        <v>3600</v>
+        <v>217010</v>
       </c>
       <c r="D9" s="1">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>3600</v>
+      <c r="B10" s="2">
+        <v>217011</v>
       </c>
       <c r="C10" s="1">
-        <v>4500</v>
+        <v>419315</v>
       </c>
       <c r="D10" s="1">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>4500</v>
+      <c r="B11" s="2">
+        <v>419316</v>
       </c>
       <c r="C11" s="1">
-        <v>100000000</v>
+        <v>786515</v>
       </c>
       <c r="D11" s="1">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -1317,13 +1317,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1331,111 +1331,111 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C4" s="1">
-        <v>600</v>
+        <v>1769</v>
       </c>
       <c r="D4" s="1">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>600</v>
+      <c r="B5" s="2">
+        <v>1770</v>
       </c>
       <c r="C5" s="1">
-        <v>1000</v>
+        <v>7607</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>1000</v>
+      <c r="B6" s="2">
+        <v>7608</v>
       </c>
       <c r="C6" s="1">
-        <v>1500</v>
+        <v>20387</v>
       </c>
       <c r="D6" s="1">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1500</v>
+      <c r="B7" s="2">
+        <v>20388</v>
       </c>
       <c r="C7" s="1">
-        <v>2100</v>
+        <v>48748</v>
       </c>
       <c r="D7" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>2100</v>
+      <c r="B8" s="2">
+        <v>48749</v>
       </c>
       <c r="C8" s="1">
-        <v>2800</v>
+        <v>104863</v>
       </c>
       <c r="D8" s="1">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>2800</v>
+      <c r="B9" s="2">
+        <v>104864</v>
       </c>
       <c r="C9" s="1">
-        <v>3600</v>
+        <v>217010</v>
       </c>
       <c r="D9" s="1">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>3600</v>
+      <c r="B10" s="2">
+        <v>217011</v>
       </c>
       <c r="C10" s="1">
-        <v>4500</v>
+        <v>419315</v>
       </c>
       <c r="D10" s="1">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>4500</v>
+      <c r="B11" s="2">
+        <v>419316</v>
       </c>
       <c r="C11" s="1">
-        <v>100000000</v>
+        <v>786515</v>
       </c>
       <c r="D11" s="1">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -1455,7 +1455,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1486,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -1497,13 +1497,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1511,111 +1511,111 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C4" s="1">
-        <v>600</v>
+        <v>1769</v>
       </c>
       <c r="D4" s="1">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>600</v>
+      <c r="B5" s="2">
+        <v>1770</v>
       </c>
       <c r="C5" s="1">
-        <v>1000</v>
+        <v>7607</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>1000</v>
+      <c r="B6" s="2">
+        <v>7608</v>
       </c>
       <c r="C6" s="1">
-        <v>1500</v>
+        <v>20387</v>
       </c>
       <c r="D6" s="1">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1500</v>
+      <c r="B7" s="2">
+        <v>20388</v>
       </c>
       <c r="C7" s="1">
-        <v>2100</v>
+        <v>48748</v>
       </c>
       <c r="D7" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>2100</v>
+      <c r="B8" s="2">
+        <v>48749</v>
       </c>
       <c r="C8" s="1">
-        <v>2800</v>
+        <v>104863</v>
       </c>
       <c r="D8" s="1">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>2800</v>
+      <c r="B9" s="2">
+        <v>104864</v>
       </c>
       <c r="C9" s="1">
-        <v>3600</v>
+        <v>217010</v>
       </c>
       <c r="D9" s="1">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>3600</v>
+      <c r="B10" s="2">
+        <v>217011</v>
       </c>
       <c r="C10" s="1">
-        <v>4500</v>
+        <v>419315</v>
       </c>
       <c r="D10" s="1">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>4500</v>
+      <c r="B11" s="2">
+        <v>419316</v>
       </c>
       <c r="C11" s="1">
-        <v>100000000</v>
+        <v>786515</v>
       </c>
       <c r="D11" s="1">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -1677,13 +1677,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1691,111 +1691,111 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C4" s="1">
-        <v>600</v>
+        <v>1769</v>
       </c>
       <c r="D4" s="1">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>600</v>
+      <c r="B5" s="2">
+        <v>1770</v>
       </c>
       <c r="C5" s="1">
-        <v>1000</v>
+        <v>7607</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>1000</v>
+      <c r="B6" s="2">
+        <v>7608</v>
       </c>
       <c r="C6" s="1">
-        <v>1500</v>
+        <v>20387</v>
       </c>
       <c r="D6" s="1">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1500</v>
+      <c r="B7" s="2">
+        <v>20388</v>
       </c>
       <c r="C7" s="1">
-        <v>2100</v>
+        <v>48748</v>
       </c>
       <c r="D7" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>2100</v>
+      <c r="B8" s="2">
+        <v>48749</v>
       </c>
       <c r="C8" s="1">
-        <v>2800</v>
+        <v>104863</v>
       </c>
       <c r="D8" s="1">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>2800</v>
+      <c r="B9" s="2">
+        <v>104864</v>
       </c>
       <c r="C9" s="1">
-        <v>3600</v>
+        <v>217010</v>
       </c>
       <c r="D9" s="1">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>3600</v>
+      <c r="B10" s="2">
+        <v>217011</v>
       </c>
       <c r="C10" s="1">
-        <v>4500</v>
+        <v>419315</v>
       </c>
       <c r="D10" s="1">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>4500</v>
+      <c r="B11" s="2">
+        <v>419316</v>
       </c>
       <c r="C11" s="1">
-        <v>100000000</v>
+        <v>786515</v>
       </c>
       <c r="D11" s="1">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/PlayerVillageExp.xlsx
+++ b/gameData/shared/PlayerVillageExp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2340" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="5"/>
+    <workbookView xWindow="14760" yWindow="1360" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="2" r:id="rId1"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_perExp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>coin</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -88,11 +84,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>FLOAT_effect</t>
+    <t>STR_type</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>STR_type</t>
+    <t>INT_countPerExp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_percentPerHour</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +242,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="64">
+  <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -257,6 +257,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -327,7 +331,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="64">
+  <cellStyles count="68">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -362,6 +366,8 @@
     <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -389,6 +395,8 @@
     <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -841,7 +849,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -851,10 +859,10 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -892,7 +900,7 @@
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
@@ -915,7 +923,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -928,13 +936,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -1095,7 +1103,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1108,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -1275,7 +1283,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1288,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -1455,7 +1463,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1468,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -1635,7 +1643,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1648,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="4"/>
     </row>

--- a/gameData/shared/PlayerVillageExp.xlsx
+++ b/gameData/shared/PlayerVillageExp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="19470" windowHeight="9915" tabRatio="883"/>
+    <workbookView xWindow="13200" yWindow="2060" windowWidth="19480" windowHeight="9920" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -40,12 +40,17 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>STR_type</t>
   </si>
@@ -83,15 +88,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0\%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0\%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="宋体"/>
@@ -113,13 +114,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="39"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color indexed="56"/>
@@ -134,13 +128,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="36"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -150,6 +137,11 @@
     <font>
       <sz val="10"/>
       <name val="돋움"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -183,16 +175,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -215,28 +207,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -244,28 +221,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -284,25 +255,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="Default 1" xfId="7"/>
-    <cellStyle name="Normal_" xfId="8"/>
-    <cellStyle name="Pourcentage" xfId="9"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="Standard_game" xfId="11"/>
-    <cellStyle name="标题 1 1" xfId="12"/>
-    <cellStyle name="标题 2 1" xfId="13"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="解释性文本" xfId="15"/>
-    <cellStyle name="표준_chapter_01" xfId="16"/>
+  <cellStyles count="10">
+    <cellStyle name="Default 1" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal_" xfId="3"/>
+    <cellStyle name="Pourcentage" xfId="4"/>
+    <cellStyle name="Standard_game" xfId="5"/>
+    <cellStyle name="标题 1 1" xfId="6"/>
+    <cellStyle name="标题 2 1" xfId="7"/>
+    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="표준_chapter_01" xfId="9"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -669,6 +635,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -693,20 +660,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="20" customHeight="1" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6666666666667" style="2"/>
+    <col min="1" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +681,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="1:2">
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -723,7 +689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -731,7 +697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:2">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -739,7 +705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -747,7 +713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:2">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -756,27 +722,211 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2">
+        <v>214</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>215</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1769</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.6000000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1770</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7607</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7608</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20387</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20388</v>
+      </c>
+      <c r="C7" s="2">
+        <v>48748</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>48749</v>
+      </c>
+      <c r="C8" s="2">
+        <v>104863</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>104864</v>
+      </c>
+      <c r="C9" s="2">
+        <v>217010</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>217011</v>
+      </c>
+      <c r="C10" s="2">
+        <v>419315</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>419316</v>
+      </c>
+      <c r="C11" s="2">
+        <v>786515</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="20" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6666666666667" style="2"/>
+    <col min="1" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -791,7 +941,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -805,7 +955,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -819,7 +969,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -833,7 +983,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -847,7 +997,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -861,7 +1011,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -875,7 +1025,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -889,7 +1039,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -900,10 +1050,10 @@
         <v>217010</v>
       </c>
       <c r="D9" s="2">
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -914,10 +1064,10 @@
         <v>419315</v>
       </c>
       <c r="D10" s="2">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -932,27 +1082,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="20" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6666666666667" style="2"/>
+    <col min="1" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -967,7 +1121,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -981,7 +1135,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -995,7 +1149,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1009,7 +1163,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1023,7 +1177,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1037,7 +1191,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1051,7 +1205,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1065,7 +1219,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1076,10 +1230,10 @@
         <v>217010</v>
       </c>
       <c r="D9" s="2">
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1090,10 +1244,10 @@
         <v>419315</v>
       </c>
       <c r="D10" s="2">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1108,27 +1262,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="20" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6666666666667" style="2"/>
+    <col min="1" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,7 +1301,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1157,7 +1315,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1171,7 +1329,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1185,7 +1343,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1199,7 +1357,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1213,7 +1371,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1227,7 +1385,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1241,7 +1399,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1252,10 +1410,10 @@
         <v>217010</v>
       </c>
       <c r="D9" s="2">
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1266,10 +1424,10 @@
         <v>419315</v>
       </c>
       <c r="D10" s="2">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1284,27 +1442,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="20" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6666666666667" style="2"/>
+    <col min="1" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1319,7 +1481,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1333,7 +1495,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1347,7 +1509,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1361,7 +1523,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1375,7 +1537,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1389,7 +1551,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1403,7 +1565,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1417,7 +1579,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1428,10 +1590,10 @@
         <v>217010</v>
       </c>
       <c r="D9" s="2">
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1442,10 +1604,10 @@
         <v>419315</v>
       </c>
       <c r="D10" s="2">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1460,184 +1622,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="20" customHeight="1" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="16384" width="20.6666666666667" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2">
-        <v>214</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>215</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1769</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1770</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7607</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>7608</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20387</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>20388</v>
-      </c>
-      <c r="C7" s="2">
-        <v>48748</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>48749</v>
-      </c>
-      <c r="C8" s="2">
-        <v>104863</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>104864</v>
-      </c>
-      <c r="C9" s="2">
-        <v>217010</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>217011</v>
-      </c>
-      <c r="C10" s="2">
-        <v>419315</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>419316</v>
-      </c>
-      <c r="C11" s="2">
-        <v>786515</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/gameData/shared/PlayerVillageExp.xlsx
+++ b/gameData/shared/PlayerVillageExp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="2060" windowWidth="19480" windowHeight="9920" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="2820" yWindow="0" windowWidth="19480" windowHeight="9920" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0\%"/>
+    <numFmt numFmtId="176" formatCode="0\%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="宋体"/>
@@ -141,6 +141,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -207,7 +221,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,7 +235,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -239,8 +253,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,8 +286,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="16">
     <cellStyle name="Default 1" xfId="2"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -263,6 +298,12 @@
     <cellStyle name="Standard_game" xfId="5"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -663,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -718,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -737,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="B2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -768,11 +809,11 @@
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>50</v>
+      <c r="C2" s="5">
+        <v>1526</v>
       </c>
       <c r="D2" s="2">
-        <v>4.2</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -780,13 +821,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2">
-        <v>214</v>
+        <v>1527</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6882</v>
       </c>
       <c r="D3" s="2">
-        <v>4.4000000000000004</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -794,13 +835,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>215</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1769</v>
+        <v>6883</v>
+      </c>
+      <c r="C4" s="5">
+        <v>51274</v>
       </c>
       <c r="D4" s="2">
-        <v>4.6000000000000005</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -808,13 +849,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>1770</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7607</v>
+        <v>51275</v>
+      </c>
+      <c r="C5" s="5">
+        <v>238056</v>
       </c>
       <c r="D5" s="2">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -822,13 +863,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>7608</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20387</v>
+        <v>238057</v>
+      </c>
+      <c r="C6" s="5">
+        <v>666557</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -836,13 +877,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>20388</v>
-      </c>
-      <c r="C7" s="2">
-        <v>48748</v>
+        <v>666558</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1153656</v>
       </c>
       <c r="D7" s="2">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -850,13 +891,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>48749</v>
-      </c>
-      <c r="C8" s="2">
-        <v>104863</v>
+        <v>1153657</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1699354</v>
       </c>
       <c r="D8" s="2">
-        <v>5.4</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -864,13 +905,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>104864</v>
-      </c>
-      <c r="C9" s="2">
-        <v>217010</v>
+        <v>1699355</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2614954</v>
       </c>
       <c r="D9" s="2">
-        <v>5.6000000000000005</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -878,13 +919,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>217011</v>
-      </c>
-      <c r="C10" s="2">
-        <v>419315</v>
+        <v>2614955</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3823546</v>
       </c>
       <c r="D10" s="2">
-        <v>5.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -892,13 +933,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>419316</v>
-      </c>
-      <c r="C11" s="2">
-        <v>786515</v>
+        <v>3823547</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5420352</v>
       </c>
       <c r="D11" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -917,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -948,11 +989,11 @@
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>50</v>
+      <c r="C2" s="5">
+        <v>1526</v>
       </c>
       <c r="D2" s="2">
-        <v>0.42</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -960,13 +1001,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2">
-        <v>214</v>
+        <v>1527</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6882</v>
       </c>
       <c r="D3" s="2">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -974,13 +1015,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>215</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1769</v>
+        <v>6883</v>
+      </c>
+      <c r="C4" s="5">
+        <v>51274</v>
       </c>
       <c r="D4" s="2">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -988,13 +1029,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>1770</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7607</v>
+        <v>51275</v>
+      </c>
+      <c r="C5" s="5">
+        <v>238056</v>
       </c>
       <c r="D5" s="2">
-        <v>0.48</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -1002,13 +1043,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>7608</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20387</v>
+        <v>238057</v>
+      </c>
+      <c r="C6" s="5">
+        <v>666557</v>
       </c>
       <c r="D6" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -1016,13 +1057,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>20388</v>
-      </c>
-      <c r="C7" s="2">
-        <v>48748</v>
+        <v>666558</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1153656</v>
       </c>
       <c r="D7" s="2">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -1030,13 +1071,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>48749</v>
-      </c>
-      <c r="C8" s="2">
-        <v>104863</v>
+        <v>1153657</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1699354</v>
       </c>
       <c r="D8" s="2">
-        <v>0.54</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -1044,13 +1085,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>104864</v>
-      </c>
-      <c r="C9" s="2">
-        <v>217010</v>
+        <v>1699355</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2614954</v>
       </c>
       <c r="D9" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -1058,13 +1099,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>217011</v>
-      </c>
-      <c r="C10" s="2">
-        <v>419315</v>
+        <v>2614955</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3823546</v>
       </c>
       <c r="D10" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -1072,13 +1113,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>419316</v>
-      </c>
-      <c r="C11" s="2">
-        <v>786515</v>
+        <v>3823547</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5420352</v>
       </c>
       <c r="D11" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1097,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1128,11 +1169,11 @@
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>50</v>
+      <c r="C2" s="5">
+        <v>1526</v>
       </c>
       <c r="D2" s="2">
-        <v>0.42</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -1140,13 +1181,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2">
-        <v>214</v>
+        <v>1527</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6882</v>
       </c>
       <c r="D3" s="2">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1154,13 +1195,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>215</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1769</v>
+        <v>6883</v>
+      </c>
+      <c r="C4" s="5">
+        <v>51274</v>
       </c>
       <c r="D4" s="2">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -1168,13 +1209,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>1770</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7607</v>
+        <v>51275</v>
+      </c>
+      <c r="C5" s="5">
+        <v>238056</v>
       </c>
       <c r="D5" s="2">
-        <v>0.48</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -1182,13 +1223,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>7608</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20387</v>
+        <v>238057</v>
+      </c>
+      <c r="C6" s="5">
+        <v>666557</v>
       </c>
       <c r="D6" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -1196,13 +1237,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>20388</v>
-      </c>
-      <c r="C7" s="2">
-        <v>48748</v>
+        <v>666558</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1153656</v>
       </c>
       <c r="D7" s="2">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -1210,13 +1251,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>48749</v>
-      </c>
-      <c r="C8" s="2">
-        <v>104863</v>
+        <v>1153657</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1699354</v>
       </c>
       <c r="D8" s="2">
-        <v>0.54</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -1224,13 +1265,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>104864</v>
-      </c>
-      <c r="C9" s="2">
-        <v>217010</v>
+        <v>1699355</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2614954</v>
       </c>
       <c r="D9" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -1238,13 +1279,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>217011</v>
-      </c>
-      <c r="C10" s="2">
-        <v>419315</v>
+        <v>2614955</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3823546</v>
       </c>
       <c r="D10" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -1252,13 +1293,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>419316</v>
-      </c>
-      <c r="C11" s="2">
-        <v>786515</v>
+        <v>3823547</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5420352</v>
       </c>
       <c r="D11" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1277,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1308,11 +1349,11 @@
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>50</v>
+      <c r="C2" s="5">
+        <v>1526</v>
       </c>
       <c r="D2" s="2">
-        <v>0.42</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -1320,13 +1361,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2">
-        <v>214</v>
+        <v>1527</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6882</v>
       </c>
       <c r="D3" s="2">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1334,13 +1375,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>215</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1769</v>
+        <v>6883</v>
+      </c>
+      <c r="C4" s="5">
+        <v>51274</v>
       </c>
       <c r="D4" s="2">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -1348,13 +1389,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>1770</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7607</v>
+        <v>51275</v>
+      </c>
+      <c r="C5" s="5">
+        <v>238056</v>
       </c>
       <c r="D5" s="2">
-        <v>0.48</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -1362,13 +1403,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>7608</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20387</v>
+        <v>238057</v>
+      </c>
+      <c r="C6" s="5">
+        <v>666557</v>
       </c>
       <c r="D6" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -1376,13 +1417,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>20388</v>
-      </c>
-      <c r="C7" s="2">
-        <v>48748</v>
+        <v>666558</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1153656</v>
       </c>
       <c r="D7" s="2">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -1390,13 +1431,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>48749</v>
-      </c>
-      <c r="C8" s="2">
-        <v>104863</v>
+        <v>1153657</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1699354</v>
       </c>
       <c r="D8" s="2">
-        <v>0.54</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -1404,13 +1445,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>104864</v>
-      </c>
-      <c r="C9" s="2">
-        <v>217010</v>
+        <v>1699355</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2614954</v>
       </c>
       <c r="D9" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -1418,13 +1459,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>217011</v>
-      </c>
-      <c r="C10" s="2">
-        <v>419315</v>
+        <v>2614955</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3823546</v>
       </c>
       <c r="D10" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -1432,13 +1473,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>419316</v>
-      </c>
-      <c r="C11" s="2">
-        <v>786515</v>
+        <v>3823547</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5420352</v>
       </c>
       <c r="D11" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1457,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1488,11 +1529,11 @@
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>50</v>
+      <c r="C2" s="5">
+        <v>1526</v>
       </c>
       <c r="D2" s="2">
-        <v>0.42</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -1500,13 +1541,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2">
-        <v>214</v>
+        <v>1527</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6882</v>
       </c>
       <c r="D3" s="2">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1514,13 +1555,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>215</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1769</v>
+        <v>6883</v>
+      </c>
+      <c r="C4" s="5">
+        <v>51274</v>
       </c>
       <c r="D4" s="2">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -1528,13 +1569,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>1770</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7607</v>
+        <v>51275</v>
+      </c>
+      <c r="C5" s="5">
+        <v>238056</v>
       </c>
       <c r="D5" s="2">
-        <v>0.48</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -1542,13 +1583,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>7608</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20387</v>
+        <v>238057</v>
+      </c>
+      <c r="C6" s="5">
+        <v>666557</v>
       </c>
       <c r="D6" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -1556,13 +1597,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>20388</v>
-      </c>
-      <c r="C7" s="2">
-        <v>48748</v>
+        <v>666558</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1153656</v>
       </c>
       <c r="D7" s="2">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -1570,13 +1611,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>48749</v>
-      </c>
-      <c r="C8" s="2">
-        <v>104863</v>
+        <v>1153657</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1699354</v>
       </c>
       <c r="D8" s="2">
-        <v>0.54</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -1584,13 +1625,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>104864</v>
-      </c>
-      <c r="C9" s="2">
-        <v>217010</v>
+        <v>1699355</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2614954</v>
       </c>
       <c r="D9" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -1598,13 +1639,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>217011</v>
-      </c>
-      <c r="C10" s="2">
-        <v>419315</v>
+        <v>2614955</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3823546</v>
       </c>
       <c r="D10" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -1612,13 +1653,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>419316</v>
-      </c>
-      <c r="C11" s="2">
-        <v>786515</v>
+        <v>3823547</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5420352</v>
       </c>
       <c r="D11" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/PlayerVillageExp.xlsx
+++ b/gameData/shared/PlayerVillageExp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="0" windowWidth="19480" windowHeight="9920" tabRatio="883"/>
+    <workbookView xWindow="13200" yWindow="2060" windowWidth="19480" windowHeight="9920" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0\%"/>
+    <numFmt numFmtId="180" formatCode="0\%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="宋体"/>
@@ -141,20 +141,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -221,7 +207,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,7 +221,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -253,26 +239,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,11 +254,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="10">
     <cellStyle name="Default 1" xfId="2"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -298,12 +263,6 @@
     <cellStyle name="Standard_game" xfId="5"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -704,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -759,7 +718,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -778,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="B2:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -809,11 +768,11 @@
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1526</v>
+      <c r="C2" s="2">
+        <v>50</v>
       </c>
       <c r="D2" s="2">
-        <v>0.55000000000000004</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -821,13 +780,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>1527</v>
-      </c>
-      <c r="C3" s="5">
-        <v>6882</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="2">
+        <v>214</v>
       </c>
       <c r="D3" s="2">
-        <v>0.6</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -835,13 +794,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>6883</v>
-      </c>
-      <c r="C4" s="5">
-        <v>51274</v>
+        <v>215</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1769</v>
       </c>
       <c r="D4" s="2">
-        <v>0.65</v>
+        <v>4.6000000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -849,13 +808,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>51275</v>
-      </c>
-      <c r="C5" s="5">
-        <v>238056</v>
+        <v>1770</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7607</v>
       </c>
       <c r="D5" s="2">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -863,13 +822,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>238057</v>
-      </c>
-      <c r="C6" s="5">
-        <v>666557</v>
+        <v>7608</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20387</v>
       </c>
       <c r="D6" s="2">
-        <v>0.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -877,13 +836,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>666558</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1153656</v>
+        <v>20388</v>
+      </c>
+      <c r="C7" s="2">
+        <v>48748</v>
       </c>
       <c r="D7" s="2">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -891,13 +850,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>1153657</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1699354</v>
+        <v>48749</v>
+      </c>
+      <c r="C8" s="2">
+        <v>104863</v>
       </c>
       <c r="D8" s="2">
-        <v>0.85</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -905,13 +864,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>1699355</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2614954</v>
+        <v>104864</v>
+      </c>
+      <c r="C9" s="2">
+        <v>217010</v>
       </c>
       <c r="D9" s="2">
-        <v>0.9</v>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -919,13 +878,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>2614955</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3823546</v>
+        <v>217011</v>
+      </c>
+      <c r="C10" s="2">
+        <v>419315</v>
       </c>
       <c r="D10" s="2">
-        <v>0.95</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -933,13 +892,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>3823547</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5420352</v>
+        <v>419316</v>
+      </c>
+      <c r="C11" s="2">
+        <v>786515</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -958,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -989,11 +948,11 @@
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1526</v>
+      <c r="C2" s="2">
+        <v>50</v>
       </c>
       <c r="D2" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -1001,13 +960,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>1527</v>
-      </c>
-      <c r="C3" s="5">
-        <v>6882</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="2">
+        <v>214</v>
       </c>
       <c r="D3" s="2">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1015,13 +974,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>6883</v>
-      </c>
-      <c r="C4" s="5">
-        <v>51274</v>
+        <v>215</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1769</v>
       </c>
       <c r="D4" s="2">
-        <v>0.65</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -1029,13 +988,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>51275</v>
-      </c>
-      <c r="C5" s="5">
-        <v>238056</v>
+        <v>1770</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7607</v>
       </c>
       <c r="D5" s="2">
-        <v>0.7</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -1043,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>238057</v>
-      </c>
-      <c r="C6" s="5">
-        <v>666557</v>
+        <v>7608</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20387</v>
       </c>
       <c r="D6" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -1057,13 +1016,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>666558</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1153656</v>
+        <v>20388</v>
+      </c>
+      <c r="C7" s="2">
+        <v>48748</v>
       </c>
       <c r="D7" s="2">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -1071,13 +1030,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>1153657</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1699354</v>
+        <v>48749</v>
+      </c>
+      <c r="C8" s="2">
+        <v>104863</v>
       </c>
       <c r="D8" s="2">
-        <v>0.85</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -1085,13 +1044,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>1699355</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2614954</v>
+        <v>104864</v>
+      </c>
+      <c r="C9" s="2">
+        <v>217010</v>
       </c>
       <c r="D9" s="2">
-        <v>0.9</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -1099,13 +1058,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>2614955</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3823546</v>
+        <v>217011</v>
+      </c>
+      <c r="C10" s="2">
+        <v>419315</v>
       </c>
       <c r="D10" s="2">
-        <v>0.95</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -1113,13 +1072,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>3823547</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5420352</v>
+        <v>419316</v>
+      </c>
+      <c r="C11" s="2">
+        <v>786515</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1138,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1169,11 +1128,11 @@
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1526</v>
+      <c r="C2" s="2">
+        <v>50</v>
       </c>
       <c r="D2" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -1181,13 +1140,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>1527</v>
-      </c>
-      <c r="C3" s="5">
-        <v>6882</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="2">
+        <v>214</v>
       </c>
       <c r="D3" s="2">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1195,13 +1154,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>6883</v>
-      </c>
-      <c r="C4" s="5">
-        <v>51274</v>
+        <v>215</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1769</v>
       </c>
       <c r="D4" s="2">
-        <v>0.65</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -1209,13 +1168,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>51275</v>
-      </c>
-      <c r="C5" s="5">
-        <v>238056</v>
+        <v>1770</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7607</v>
       </c>
       <c r="D5" s="2">
-        <v>0.7</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -1223,13 +1182,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>238057</v>
-      </c>
-      <c r="C6" s="5">
-        <v>666557</v>
+        <v>7608</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20387</v>
       </c>
       <c r="D6" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -1237,13 +1196,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>666558</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1153656</v>
+        <v>20388</v>
+      </c>
+      <c r="C7" s="2">
+        <v>48748</v>
       </c>
       <c r="D7" s="2">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -1251,13 +1210,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>1153657</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1699354</v>
+        <v>48749</v>
+      </c>
+      <c r="C8" s="2">
+        <v>104863</v>
       </c>
       <c r="D8" s="2">
-        <v>0.85</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -1265,13 +1224,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>1699355</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2614954</v>
+        <v>104864</v>
+      </c>
+      <c r="C9" s="2">
+        <v>217010</v>
       </c>
       <c r="D9" s="2">
-        <v>0.9</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -1279,13 +1238,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>2614955</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3823546</v>
+        <v>217011</v>
+      </c>
+      <c r="C10" s="2">
+        <v>419315</v>
       </c>
       <c r="D10" s="2">
-        <v>0.95</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -1293,13 +1252,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>3823547</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5420352</v>
+        <v>419316</v>
+      </c>
+      <c r="C11" s="2">
+        <v>786515</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1318,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1349,11 +1308,11 @@
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1526</v>
+      <c r="C2" s="2">
+        <v>50</v>
       </c>
       <c r="D2" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -1361,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>1527</v>
-      </c>
-      <c r="C3" s="5">
-        <v>6882</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="2">
+        <v>214</v>
       </c>
       <c r="D3" s="2">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1375,13 +1334,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>6883</v>
-      </c>
-      <c r="C4" s="5">
-        <v>51274</v>
+        <v>215</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1769</v>
       </c>
       <c r="D4" s="2">
-        <v>0.65</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -1389,13 +1348,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>51275</v>
-      </c>
-      <c r="C5" s="5">
-        <v>238056</v>
+        <v>1770</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7607</v>
       </c>
       <c r="D5" s="2">
-        <v>0.7</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -1403,13 +1362,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>238057</v>
-      </c>
-      <c r="C6" s="5">
-        <v>666557</v>
+        <v>7608</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20387</v>
       </c>
       <c r="D6" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -1417,13 +1376,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>666558</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1153656</v>
+        <v>20388</v>
+      </c>
+      <c r="C7" s="2">
+        <v>48748</v>
       </c>
       <c r="D7" s="2">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -1431,13 +1390,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>1153657</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1699354</v>
+        <v>48749</v>
+      </c>
+      <c r="C8" s="2">
+        <v>104863</v>
       </c>
       <c r="D8" s="2">
-        <v>0.85</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -1445,13 +1404,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>1699355</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2614954</v>
+        <v>104864</v>
+      </c>
+      <c r="C9" s="2">
+        <v>217010</v>
       </c>
       <c r="D9" s="2">
-        <v>0.9</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -1459,13 +1418,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>2614955</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3823546</v>
+        <v>217011</v>
+      </c>
+      <c r="C10" s="2">
+        <v>419315</v>
       </c>
       <c r="D10" s="2">
-        <v>0.95</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -1473,13 +1432,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>3823547</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5420352</v>
+        <v>419316</v>
+      </c>
+      <c r="C11" s="2">
+        <v>786515</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1498,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1529,11 +1488,11 @@
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1526</v>
+      <c r="C2" s="2">
+        <v>50</v>
       </c>
       <c r="D2" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -1541,13 +1500,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>1527</v>
-      </c>
-      <c r="C3" s="5">
-        <v>6882</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="2">
+        <v>214</v>
       </c>
       <c r="D3" s="2">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1555,13 +1514,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>6883</v>
-      </c>
-      <c r="C4" s="5">
-        <v>51274</v>
+        <v>215</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1769</v>
       </c>
       <c r="D4" s="2">
-        <v>0.65</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -1569,13 +1528,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>51275</v>
-      </c>
-      <c r="C5" s="5">
-        <v>238056</v>
+        <v>1770</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7607</v>
       </c>
       <c r="D5" s="2">
-        <v>0.7</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -1583,13 +1542,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>238057</v>
-      </c>
-      <c r="C6" s="5">
-        <v>666557</v>
+        <v>7608</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20387</v>
       </c>
       <c r="D6" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -1597,13 +1556,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>666558</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1153656</v>
+        <v>20388</v>
+      </c>
+      <c r="C7" s="2">
+        <v>48748</v>
       </c>
       <c r="D7" s="2">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -1611,13 +1570,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>1153657</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1699354</v>
+        <v>48749</v>
+      </c>
+      <c r="C8" s="2">
+        <v>104863</v>
       </c>
       <c r="D8" s="2">
-        <v>0.85</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -1625,13 +1584,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>1699355</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2614954</v>
+        <v>104864</v>
+      </c>
+      <c r="C9" s="2">
+        <v>217010</v>
       </c>
       <c r="D9" s="2">
-        <v>0.9</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -1639,13 +1598,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>2614955</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3823546</v>
+        <v>217011</v>
+      </c>
+      <c r="C10" s="2">
+        <v>419315</v>
       </c>
       <c r="D10" s="2">
-        <v>0.95</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -1653,13 +1612,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>3823547</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5420352</v>
+        <v>419316</v>
+      </c>
+      <c r="C11" s="2">
+        <v>786515</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/PlayerVillageExp.xlsx
+++ b/gameData/shared/PlayerVillageExp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="0" windowWidth="19480" windowHeight="9920" tabRatio="883"/>
+    <workbookView xWindow="2820" yWindow="0" windowWidth="19480" windowHeight="9920" tabRatio="883" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -759,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +779,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="B2:D11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1498,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D11"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
